--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexandra.veizu\Documents\Reframework_update_UiPath_Services\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zheng\Documents\UiPath\dhl_express\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCB08925-7A6D-46B0-8F32-1723A12327D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA9D802-4816-44C9-AA17-0D4B8721578B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -18,22 +18,11 @@
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -160,6 +149,42 @@
   </si>
   <si>
     <t>Description (Assets will always overwrite other config)</t>
+  </si>
+  <si>
+    <t>string_siva_email</t>
+  </si>
+  <si>
+    <t>sivanesan.letchumanan@dhl.com</t>
+  </si>
+  <si>
+    <t>string_path_screenshot_external_name</t>
+  </si>
+  <si>
+    <t>Data\screenshot_external_name.png</t>
+  </si>
+  <si>
+    <t>string_user_email</t>
+  </si>
+  <si>
+    <t>zhengsenj@gmail.com</t>
+  </si>
+  <si>
+    <t>string_csv_name</t>
+  </si>
+  <si>
+    <t>jason_tan_zheng_sen</t>
+  </si>
+  <si>
+    <t>string_path_csv_export</t>
+  </si>
+  <si>
+    <t>string_path_csv_export_data</t>
+  </si>
+  <si>
+    <t>C:\Users\zheng\Downloads\</t>
+  </si>
+  <si>
+    <t>C:\Users\zheng\Documents\UiPath\dhl_express\Data\</t>
   </si>
 </sst>
 </file>
@@ -547,13 +572,13 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="43.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="106.7109375" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
     <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -650,12 +675,54 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -1643,9 +1710,11 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1" xr:uid="{A9582E44-9589-4301-92FF-380432A836C3}"/>
+    <hyperlink ref="B9" r:id="rId2" display="mailto:sivanesan.letchumanan@dhl.com" xr:uid="{218BBDE2-AD22-4C27-8A09-CA468D76F4B0}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{2BEEA92F-2ABA-40A6-8F2D-E080D73C19B7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
